--- a/data/Соответствие между организмом и средой, адаптации (Общая экология 2023)(1-98).xlsx
+++ b/data/Соответствие между организмом и средой, адаптации (Общая экология 2023)(1-98).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>Почта</t>
   </si>
@@ -836,6 +836,36 @@
   </si>
   <si>
     <t>Таким образом, произошла естественная селекция, в результате которой увеличилось число особей с более крупными клювами. Это привело к изменению генетического состава популяции и появлению новых генетических вариантов, которые обеспечивали выживание в условиях ограниченного ресурса. Эти изменения являются примером адаптивной радиации, когда один вид развивается в несколько разных видов, чтобы занять различные экологические ниши.</t>
+  </si>
+  <si>
+    <t>st123831@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>София Дмитровская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">в популяции произошла адаптивная радиация  </t>
+  </si>
+  <si>
+    <t>st123859@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Екатерина Галкина</t>
+  </si>
+  <si>
+    <t>st123950@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Владислава Ягодская</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перенаправление естественного отбора в сторону сохранения особей с наибольшим размером клюва (и, соответственно, увеличение размеров клюва в процессе смены поколений/эволюции) для получения возможности занять другую экологическую нишу (поедать более крупные семена, например), но такие вьюрки окажутся менее конкурентоспособными в сравнении с теми вьюрками, у которых клюв был изначально приспособлен к расклевыванию крупных семян, так что здесь имеет место быть и серьёзная конкуренция. </t>
+  </si>
+  <si>
+    <t>st123949@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Михаил Бабин</t>
   </si>
 </sst>
 </file>
@@ -1008,12 +1038,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1202,12 +1238,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1311,26 +1358,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1342,124 +1389,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1815,10 +1866,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -3476,6 +3527,62 @@
       </c>
       <c r="G100" s="1"/>
     </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C101" s="4">
+        <v>18</v>
+      </c>
+      <c r="D101"/>
+      <c r="E101" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" s="6">
+        <v>16</v>
+      </c>
+      <c r="E102" s="5"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C103" s="4">
+        <v>18</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" s="6">
+        <v>16</v>
+      </c>
+      <c r="E104" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
